--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1900.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1900.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.025492909722897</v>
+        <v>1.907933235168457</v>
       </c>
       <c r="B1">
-        <v>3.465906221428737</v>
+        <v>2.778306722640991</v>
       </c>
       <c r="C1">
-        <v>3.260143604388479</v>
+        <v>3.410005807876587</v>
       </c>
       <c r="D1">
-        <v>2.605038979854578</v>
+        <v>1.116803884506226</v>
       </c>
       <c r="E1">
-        <v>1.336515233430006</v>
+        <v>0.7195398807525635</v>
       </c>
     </row>
   </sheetData>
